--- a/stock_historical_data/1wk/TAJGVK.NS.xlsx
+++ b/stock_historical_data/1wk/TAJGVK.NS.xlsx
@@ -60887,7 +60887,9 @@
       <c r="P1140" t="n">
         <v>0</v>
       </c>
-      <c r="Q1140" t="inlineStr"/>
+      <c r="Q1140" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TAJGVK.NS.xlsx
+++ b/stock_historical_data/1wk/TAJGVK.NS.xlsx
@@ -64365,7 +64365,9 @@
       <c r="Q1141" t="n">
         <v>2</v>
       </c>
-      <c r="R1141" t="inlineStr"/>
+      <c r="R1141" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TAJGVK.NS.xlsx
+++ b/stock_historical_data/1wk/TAJGVK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1141"/>
+  <dimension ref="A1:R1143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64369,6 +64369,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1142">
+      <c r="A1142" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>348.5</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>358.0499877929688</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>338.3999938964844</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>353.1000061035156</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>353.1000061035156</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>1066786</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>352.8999938964844</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>352.8999938964844</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>333.25</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>674116</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1143" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/TAJGVK.NS.xlsx
+++ b/stock_historical_data/1wk/TAJGVK.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1143"/>
+  <dimension ref="A1:R1178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3712,13 +3712,13 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q58" t="n">
         <v>2</v>
       </c>
       <c r="R58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -4776,13 +4776,13 @@
         <v>2</v>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q77" t="n">
         <v>2</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -5112,13 +5112,13 @@
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -5846,7 +5846,7 @@
         <v>2</v>
       </c>
       <c r="R96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -6350,7 +6350,7 @@
         <v>1</v>
       </c>
       <c r="R105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -7806,7 +7806,7 @@
         <v>2</v>
       </c>
       <c r="R131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -8142,7 +8142,7 @@
         <v>2</v>
       </c>
       <c r="R137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -8758,7 +8758,7 @@
         <v>1</v>
       </c>
       <c r="R148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -9038,7 +9038,7 @@
         <v>2</v>
       </c>
       <c r="R153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -9374,7 +9374,7 @@
         <v>1</v>
       </c>
       <c r="R159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -9710,7 +9710,7 @@
         <v>2</v>
       </c>
       <c r="R165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -10158,7 +10158,7 @@
         <v>2</v>
       </c>
       <c r="R173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -10214,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="R174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -10998,7 +10998,7 @@
         <v>2</v>
       </c>
       <c r="R188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -11838,7 +11838,7 @@
         <v>2</v>
       </c>
       <c r="R203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -12118,7 +12118,7 @@
         <v>1</v>
       </c>
       <c r="R208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -12622,7 +12622,7 @@
         <v>2</v>
       </c>
       <c r="R217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -13238,7 +13238,7 @@
         <v>2</v>
       </c>
       <c r="R228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
@@ -13742,7 +13742,7 @@
         <v>2</v>
       </c>
       <c r="R237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -14246,7 +14246,7 @@
         <v>1</v>
       </c>
       <c r="R246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -14582,7 +14582,7 @@
         <v>2</v>
       </c>
       <c r="R252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
@@ -14638,7 +14638,7 @@
         <v>1</v>
       </c>
       <c r="R253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -15366,7 +15366,7 @@
         <v>2</v>
       </c>
       <c r="R266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267">
@@ -16038,7 +16038,7 @@
         <v>1</v>
       </c>
       <c r="R278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -16654,7 +16654,7 @@
         <v>2</v>
       </c>
       <c r="R289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290">
@@ -16822,7 +16822,7 @@
         <v>1</v>
       </c>
       <c r="R292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -17326,7 +17326,7 @@
         <v>1</v>
       </c>
       <c r="R301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -17718,7 +17718,7 @@
         <v>2</v>
       </c>
       <c r="R308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -18334,7 +18334,7 @@
         <v>1</v>
       </c>
       <c r="R319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -18614,7 +18614,7 @@
         <v>2</v>
       </c>
       <c r="R324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -19342,7 +19342,7 @@
         <v>1</v>
       </c>
       <c r="R337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -19622,7 +19622,7 @@
         <v>2</v>
       </c>
       <c r="R342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
@@ -20070,7 +20070,7 @@
         <v>1</v>
       </c>
       <c r="R350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -20798,7 +20798,7 @@
         <v>2</v>
       </c>
       <c r="R363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364">
@@ -21078,7 +21078,7 @@
         <v>1</v>
       </c>
       <c r="R368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -21246,7 +21246,7 @@
         <v>2</v>
       </c>
       <c r="R371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -21974,7 +21974,7 @@
         <v>1</v>
       </c>
       <c r="R384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -22086,7 +22086,7 @@
         <v>2</v>
       </c>
       <c r="R386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387">
@@ -22646,7 +22646,7 @@
         <v>2</v>
       </c>
       <c r="R396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397">
@@ -22702,7 +22702,7 @@
         <v>1</v>
       </c>
       <c r="R397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -23430,7 +23430,7 @@
         <v>2</v>
       </c>
       <c r="R410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411">
@@ -23654,7 +23654,7 @@
         <v>1</v>
       </c>
       <c r="R414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -23934,7 +23934,7 @@
         <v>2</v>
       </c>
       <c r="R419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -24718,7 +24718,7 @@
         <v>2</v>
       </c>
       <c r="R433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434">
@@ -25110,7 +25110,7 @@
         <v>1</v>
       </c>
       <c r="R440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -26062,7 +26062,7 @@
         <v>1</v>
       </c>
       <c r="R457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -26174,7 +26174,7 @@
         <v>2</v>
       </c>
       <c r="R459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460">
@@ -26566,7 +26566,7 @@
         <v>1</v>
       </c>
       <c r="R466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -27294,7 +27294,7 @@
         <v>1</v>
       </c>
       <c r="R479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
@@ -27854,7 +27854,7 @@
         <v>2</v>
       </c>
       <c r="R489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490">
@@ -28246,7 +28246,7 @@
         <v>1</v>
       </c>
       <c r="R496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -29310,7 +29310,7 @@
         <v>1</v>
       </c>
       <c r="R515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
@@ -30038,7 +30038,7 @@
         <v>1</v>
       </c>
       <c r="R528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -30654,7 +30654,7 @@
         <v>2</v>
       </c>
       <c r="R539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540">
@@ -31046,7 +31046,7 @@
         <v>2</v>
       </c>
       <c r="R546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547">
@@ -31886,7 +31886,7 @@
         <v>2</v>
       </c>
       <c r="R561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562">
@@ -32446,7 +32446,7 @@
         <v>2</v>
       </c>
       <c r="R571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572">
@@ -33230,7 +33230,7 @@
         <v>1</v>
       </c>
       <c r="R585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -33734,7 +33734,7 @@
         <v>2</v>
       </c>
       <c r="R594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595">
@@ -36086,7 +36086,7 @@
         <v>2</v>
       </c>
       <c r="R636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637">
@@ -36926,7 +36926,7 @@
         <v>2</v>
       </c>
       <c r="R651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652">
@@ -37766,7 +37766,7 @@
         <v>1</v>
       </c>
       <c r="R666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667">
@@ -38438,7 +38438,7 @@
         <v>1</v>
       </c>
       <c r="R678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
@@ -38886,7 +38886,7 @@
         <v>2</v>
       </c>
       <c r="R686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687">
@@ -38998,7 +38998,7 @@
         <v>1</v>
       </c>
       <c r="R688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689">
@@ -40062,7 +40062,7 @@
         <v>2</v>
       </c>
       <c r="R707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708">
@@ -41910,7 +41910,7 @@
         <v>2</v>
       </c>
       <c r="R740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741">
@@ -42190,7 +42190,7 @@
         <v>1</v>
       </c>
       <c r="R745" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746">
@@ -42358,7 +42358,7 @@
         <v>2</v>
       </c>
       <c r="R748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749">
@@ -42638,7 +42638,7 @@
         <v>1</v>
       </c>
       <c r="R753" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754">
@@ -43198,7 +43198,7 @@
         <v>2</v>
       </c>
       <c r="R763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764">
@@ -43870,7 +43870,7 @@
         <v>2</v>
       </c>
       <c r="R775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776">
@@ -44094,7 +44094,7 @@
         <v>1</v>
       </c>
       <c r="R779" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780">
@@ -44878,7 +44878,7 @@
         <v>1</v>
       </c>
       <c r="R793" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794">
@@ -45158,7 +45158,7 @@
         <v>2</v>
       </c>
       <c r="R798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799">
@@ -45606,7 +45606,7 @@
         <v>2</v>
       </c>
       <c r="R806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807">
@@ -45774,7 +45774,7 @@
         <v>1</v>
       </c>
       <c r="R809" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810">
@@ -46054,7 +46054,7 @@
         <v>2</v>
       </c>
       <c r="R814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815">
@@ -46390,7 +46390,7 @@
         <v>1</v>
       </c>
       <c r="R820" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821">
@@ -46782,7 +46782,7 @@
         <v>2</v>
       </c>
       <c r="R827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828">
@@ -47118,7 +47118,7 @@
         <v>1</v>
       </c>
       <c r="R833" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834">
@@ -47566,7 +47566,7 @@
         <v>2</v>
       </c>
       <c r="R841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842">
@@ -48686,7 +48686,7 @@
         <v>2</v>
       </c>
       <c r="R861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862">
@@ -49022,7 +49022,7 @@
         <v>1</v>
       </c>
       <c r="R867" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868">
@@ -49526,7 +49526,7 @@
         <v>2</v>
       </c>
       <c r="R876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877">
@@ -50142,7 +50142,7 @@
         <v>1</v>
       </c>
       <c r="R887" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888">
@@ -50366,7 +50366,7 @@
         <v>2</v>
       </c>
       <c r="R891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892">
@@ -50646,7 +50646,7 @@
         <v>1</v>
       </c>
       <c r="R896" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897">
@@ -51542,7 +51542,7 @@
         <v>1</v>
       </c>
       <c r="R912" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913">
@@ -52382,7 +52382,7 @@
         <v>1</v>
       </c>
       <c r="R927" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928">
@@ -52606,7 +52606,7 @@
         <v>2</v>
       </c>
       <c r="R931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932">
@@ -53110,7 +53110,7 @@
         <v>2</v>
       </c>
       <c r="R940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941">
@@ -53278,7 +53278,7 @@
         <v>1</v>
       </c>
       <c r="R943" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944">
@@ -53614,7 +53614,7 @@
         <v>2</v>
       </c>
       <c r="R949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950">
@@ -53838,7 +53838,7 @@
         <v>1</v>
       </c>
       <c r="R953" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954">
@@ -54510,7 +54510,7 @@
         <v>2</v>
       </c>
       <c r="R965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966">
@@ -54566,7 +54566,7 @@
         <v>1</v>
       </c>
       <c r="R966" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967">
@@ -55518,7 +55518,7 @@
         <v>1</v>
       </c>
       <c r="R983" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984">
@@ -56526,7 +56526,7 @@
         <v>1</v>
       </c>
       <c r="R1001" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002">
@@ -57478,7 +57478,7 @@
         <v>1</v>
       </c>
       <c r="R1018" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019">
@@ -57814,7 +57814,7 @@
         <v>2</v>
       </c>
       <c r="R1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025">
@@ -57982,7 +57982,7 @@
         <v>1</v>
       </c>
       <c r="R1027" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028">
@@ -58430,7 +58430,7 @@
         <v>2</v>
       </c>
       <c r="R1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036">
@@ -59774,7 +59774,7 @@
         <v>2</v>
       </c>
       <c r="R1059" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1060">
@@ -60334,7 +60334,7 @@
         <v>2</v>
       </c>
       <c r="R1069" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070">
@@ -60446,7 +60446,7 @@
         <v>1</v>
       </c>
       <c r="R1071" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1072">
@@ -60894,7 +60894,7 @@
         <v>1</v>
       </c>
       <c r="R1079" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080">
@@ -62182,7 +62182,7 @@
         <v>2</v>
       </c>
       <c r="R1102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1103">
@@ -62686,7 +62686,7 @@
         <v>2</v>
       </c>
       <c r="R1111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1112">
@@ -62854,7 +62854,7 @@
         <v>1</v>
       </c>
       <c r="R1114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115">
@@ -63806,7 +63806,7 @@
         <v>2</v>
       </c>
       <c r="R1131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1132">
@@ -64301,7 +64301,7 @@
         <v>23</v>
       </c>
       <c r="O1140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1140" t="n">
         <v>0</v>
@@ -64366,7 +64366,7 @@
         <v>2</v>
       </c>
       <c r="R1141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1142">
@@ -64421,7 +64421,9 @@
       <c r="Q1142" t="n">
         <v>0</v>
       </c>
-      <c r="R1142" t="inlineStr"/>
+      <c r="R1142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
@@ -64475,7 +64477,1829 @@
       <c r="Q1143" t="n">
         <v>0</v>
       </c>
-      <c r="R1143" t="inlineStr"/>
+      <c r="R1143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>334.3773376537972</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>336.8652642732451</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>322.6343361580823</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>328.3565673828125</v>
+      </c>
+      <c r="F1144" t="inlineStr"/>
+      <c r="G1144" t="n">
+        <v>900236</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>329.401482612245</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>334.1782895473646</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>322.8831270530425</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>326.117431640625</v>
+      </c>
+      <c r="F1145" t="inlineStr"/>
+      <c r="G1145" t="n">
+        <v>576883</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>327.7096922594409</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>330.0981261838358</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>313.7773027613987</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>316.8125915527344</v>
+      </c>
+      <c r="F1146" t="inlineStr"/>
+      <c r="G1146" t="n">
+        <v>383992</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>316.8125799917123</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>341.1444839693331</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>310.2444476797062</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>332.934326171875</v>
+      </c>
+      <c r="F1147" t="inlineStr"/>
+      <c r="G1147" t="n">
+        <v>1353928</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>333.3821619399681</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>338.0594760615332</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>311.7869470632404</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>316.5140075683594</v>
+      </c>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="n">
+        <v>1161970</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>305.5173850371402</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>315.369568252572</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>287.2062514216573</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>296.610595703125</v>
+      </c>
+      <c r="F1149" t="inlineStr"/>
+      <c r="G1149" t="n">
+        <v>1796649</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>298</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>316</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>296.25</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>308.8999938964844</v>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="n">
+        <v>886956</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>308.8999938964844</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>329.1499938964844</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>306.7000122070312</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>320.3500061035156</v>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="n">
+        <v>740099</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>324.6000061035156</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>338</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>321.0499877929688</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>331.6499938964844</v>
+      </c>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="n">
+        <v>789878</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>331</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>336.75</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>322</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>324.2000122070312</v>
+      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="n">
+        <v>706894</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>326</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>311.2000122070312</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>324.2999877929688</v>
+      </c>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="n">
+        <v>886425</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>326.75</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>328.1000061035156</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>306</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>311.5499877929688</v>
+      </c>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="n">
+        <v>592465</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>313.0499877929688</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>323</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>308.3999938964844</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>312.5</v>
+      </c>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="n">
+        <v>396209</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>314.9500122070312</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>319</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>297</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>298.5</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>322267</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>302.7999877929688</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>318.2999877929688</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>285.25</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>311.2999877929688</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>420197</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>310</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>312.6000061035156</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>296.75</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>303.3500061035156</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>324964</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>306</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>309.5</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>281.0499877929688</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>294.25</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>398765</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>296</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>308</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>287.1499938964844</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>306.8500061035156</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>342769</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>306.8500061035156</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>349</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>338.5499877929688</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>5762304</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>339</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>351</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>304.6000061035156</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>310.8999938964844</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>1430789</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>313</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>342</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>308.7999877929688</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>330.6000061035156</v>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="n">
+        <v>1078688</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>332.2000122070312</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>330.5499877929688</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>345.25</v>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="n">
+        <v>1212959</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>345</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>366.7999877929688</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>342.3999938964844</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>362.3999938964844</v>
+      </c>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="n">
+        <v>2085899</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>364</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>389.8999938964844</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>353.7999877929688</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>385.75</v>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="n">
+        <v>2882060</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>386.7000122070312</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>407.75</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>361.3500061035156</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>364</v>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="n">
+        <v>2001328</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>368</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>415.9500122070312</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>344.1000061035156</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>384.3999938964844</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>4159881</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>384</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>458.25</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>376</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>445.6000061035156</v>
+      </c>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="n">
+        <v>8641498</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>446.8999938964844</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>455.75</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>385.5499877929688</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>388.3999938964844</v>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="n">
+        <v>2678225</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>383.8500061035156</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>405.25</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>359.1000061035156</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>399.7999877929688</v>
+      </c>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="n">
+        <v>2308691</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>400.25</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>402</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>359.2000122070312</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>362.7000122070312</v>
+      </c>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="n">
+        <v>1457657</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>351.7000122070312</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>383.1499938964844</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>330.2000122070312</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>377.2000122070312</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>1643098</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>374.8999938964844</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>449</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>367.8500061035156</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>413.25</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>6186196</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>414.3500061035156</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>415.8999938964844</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>372.1499938964844</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>383.1000061035156</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>2216848</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>382.3999938964844</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>498.25</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>372.6499938964844</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>453.6000061035156</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>6665724</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>440.3999938964844</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>483.3999938964844</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>434.2999877929688</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>448.25</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>3099742</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TAJGVK.NS.xlsx
+++ b/stock_historical_data/1wk/TAJGVK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1178"/>
+  <dimension ref="A1:R1182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5846,7 +5846,7 @@
         <v>2</v>
       </c>
       <c r="R96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -6350,7 +6350,7 @@
         <v>1</v>
       </c>
       <c r="R105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -7806,7 +7806,7 @@
         <v>2</v>
       </c>
       <c r="R131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -8142,7 +8142,7 @@
         <v>2</v>
       </c>
       <c r="R137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -8758,7 +8758,7 @@
         <v>1</v>
       </c>
       <c r="R148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -9038,7 +9038,7 @@
         <v>2</v>
       </c>
       <c r="R153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -9374,7 +9374,7 @@
         <v>1</v>
       </c>
       <c r="R159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -9710,7 +9710,7 @@
         <v>2</v>
       </c>
       <c r="R165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -10158,7 +10158,7 @@
         <v>2</v>
       </c>
       <c r="R173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -10214,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="R174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -10998,7 +10998,7 @@
         <v>2</v>
       </c>
       <c r="R188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -11838,7 +11838,7 @@
         <v>2</v>
       </c>
       <c r="R203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -12118,7 +12118,7 @@
         <v>1</v>
       </c>
       <c r="R208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -12622,7 +12622,7 @@
         <v>2</v>
       </c>
       <c r="R217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -13238,7 +13238,7 @@
         <v>2</v>
       </c>
       <c r="R228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -13742,7 +13742,7 @@
         <v>2</v>
       </c>
       <c r="R237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -14246,7 +14246,7 @@
         <v>1</v>
       </c>
       <c r="R246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -14582,7 +14582,7 @@
         <v>2</v>
       </c>
       <c r="R252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -14638,7 +14638,7 @@
         <v>1</v>
       </c>
       <c r="R253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -15366,7 +15366,7 @@
         <v>2</v>
       </c>
       <c r="R266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -16038,7 +16038,7 @@
         <v>1</v>
       </c>
       <c r="R278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -16654,7 +16654,7 @@
         <v>2</v>
       </c>
       <c r="R289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -16822,7 +16822,7 @@
         <v>1</v>
       </c>
       <c r="R292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -17326,7 +17326,7 @@
         <v>1</v>
       </c>
       <c r="R301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -17718,7 +17718,7 @@
         <v>2</v>
       </c>
       <c r="R308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -18334,7 +18334,7 @@
         <v>1</v>
       </c>
       <c r="R319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -18614,7 +18614,7 @@
         <v>2</v>
       </c>
       <c r="R324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -19342,7 +19342,7 @@
         <v>1</v>
       </c>
       <c r="R337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -19622,7 +19622,7 @@
         <v>2</v>
       </c>
       <c r="R342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -20070,7 +20070,7 @@
         <v>1</v>
       </c>
       <c r="R350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -20798,7 +20798,7 @@
         <v>2</v>
       </c>
       <c r="R363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -21078,7 +21078,7 @@
         <v>1</v>
       </c>
       <c r="R368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -21246,7 +21246,7 @@
         <v>2</v>
       </c>
       <c r="R371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -21974,7 +21974,7 @@
         <v>1</v>
       </c>
       <c r="R384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -22086,7 +22086,7 @@
         <v>2</v>
       </c>
       <c r="R386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -22646,7 +22646,7 @@
         <v>2</v>
       </c>
       <c r="R396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -22702,7 +22702,7 @@
         <v>1</v>
       </c>
       <c r="R397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -23430,7 +23430,7 @@
         <v>2</v>
       </c>
       <c r="R410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -23654,7 +23654,7 @@
         <v>1</v>
       </c>
       <c r="R414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -23934,7 +23934,7 @@
         <v>2</v>
       </c>
       <c r="R419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -24718,7 +24718,7 @@
         <v>2</v>
       </c>
       <c r="R433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -25110,7 +25110,7 @@
         <v>1</v>
       </c>
       <c r="R440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -26062,7 +26062,7 @@
         <v>1</v>
       </c>
       <c r="R457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
@@ -26174,7 +26174,7 @@
         <v>2</v>
       </c>
       <c r="R459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
@@ -26566,7 +26566,7 @@
         <v>1</v>
       </c>
       <c r="R466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
@@ -27294,7 +27294,7 @@
         <v>1</v>
       </c>
       <c r="R479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -27854,7 +27854,7 @@
         <v>2</v>
       </c>
       <c r="R489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -28246,7 +28246,7 @@
         <v>1</v>
       </c>
       <c r="R496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -29310,7 +29310,7 @@
         <v>1</v>
       </c>
       <c r="R515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -30038,7 +30038,7 @@
         <v>1</v>
       </c>
       <c r="R528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -30654,7 +30654,7 @@
         <v>2</v>
       </c>
       <c r="R539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -31046,7 +31046,7 @@
         <v>2</v>
       </c>
       <c r="R546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -31886,7 +31886,7 @@
         <v>2</v>
       </c>
       <c r="R561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
@@ -32446,7 +32446,7 @@
         <v>2</v>
       </c>
       <c r="R571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
@@ -33230,7 +33230,7 @@
         <v>1</v>
       </c>
       <c r="R585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
@@ -33734,7 +33734,7 @@
         <v>2</v>
       </c>
       <c r="R594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -36086,7 +36086,7 @@
         <v>2</v>
       </c>
       <c r="R636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
@@ -36926,7 +36926,7 @@
         <v>2</v>
       </c>
       <c r="R651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
@@ -37766,7 +37766,7 @@
         <v>1</v>
       </c>
       <c r="R666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
@@ -38438,7 +38438,7 @@
         <v>1</v>
       </c>
       <c r="R678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679">
@@ -38886,7 +38886,7 @@
         <v>2</v>
       </c>
       <c r="R686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687">
@@ -38998,7 +38998,7 @@
         <v>1</v>
       </c>
       <c r="R688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689">
@@ -40062,7 +40062,7 @@
         <v>2</v>
       </c>
       <c r="R707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
@@ -41910,7 +41910,7 @@
         <v>2</v>
       </c>
       <c r="R740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741">
@@ -42190,7 +42190,7 @@
         <v>1</v>
       </c>
       <c r="R745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746">
@@ -42358,7 +42358,7 @@
         <v>2</v>
       </c>
       <c r="R748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749">
@@ -42638,7 +42638,7 @@
         <v>1</v>
       </c>
       <c r="R753" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754">
@@ -43198,7 +43198,7 @@
         <v>2</v>
       </c>
       <c r="R763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764">
@@ -43870,7 +43870,7 @@
         <v>2</v>
       </c>
       <c r="R775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776">
@@ -44094,7 +44094,7 @@
         <v>1</v>
       </c>
       <c r="R779" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780">
@@ -44878,7 +44878,7 @@
         <v>1</v>
       </c>
       <c r="R793" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794">
@@ -45158,7 +45158,7 @@
         <v>2</v>
       </c>
       <c r="R798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799">
@@ -45606,7 +45606,7 @@
         <v>2</v>
       </c>
       <c r="R806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807">
@@ -45774,7 +45774,7 @@
         <v>1</v>
       </c>
       <c r="R809" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810">
@@ -46054,7 +46054,7 @@
         <v>2</v>
       </c>
       <c r="R814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815">
@@ -46390,7 +46390,7 @@
         <v>1</v>
       </c>
       <c r="R820" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821">
@@ -46782,7 +46782,7 @@
         <v>2</v>
       </c>
       <c r="R827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828">
@@ -47118,7 +47118,7 @@
         <v>1</v>
       </c>
       <c r="R833" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834">
@@ -47566,7 +47566,7 @@
         <v>2</v>
       </c>
       <c r="R841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842">
@@ -48686,7 +48686,7 @@
         <v>2</v>
       </c>
       <c r="R861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862">
@@ -49022,7 +49022,7 @@
         <v>1</v>
       </c>
       <c r="R867" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868">
@@ -49526,7 +49526,7 @@
         <v>2</v>
       </c>
       <c r="R876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877">
@@ -50142,7 +50142,7 @@
         <v>1</v>
       </c>
       <c r="R887" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888">
@@ -50366,7 +50366,7 @@
         <v>2</v>
       </c>
       <c r="R891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892">
@@ -50646,7 +50646,7 @@
         <v>1</v>
       </c>
       <c r="R896" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897">
@@ -51542,7 +51542,7 @@
         <v>1</v>
       </c>
       <c r="R912" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913">
@@ -52382,7 +52382,7 @@
         <v>1</v>
       </c>
       <c r="R927" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928">
@@ -52606,7 +52606,7 @@
         <v>2</v>
       </c>
       <c r="R931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932">
@@ -53110,7 +53110,7 @@
         <v>2</v>
       </c>
       <c r="R940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941">
@@ -53278,7 +53278,7 @@
         <v>1</v>
       </c>
       <c r="R943" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944">
@@ -53614,7 +53614,7 @@
         <v>2</v>
       </c>
       <c r="R949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950">
@@ -53838,7 +53838,7 @@
         <v>1</v>
       </c>
       <c r="R953" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954">
@@ -54510,7 +54510,7 @@
         <v>2</v>
       </c>
       <c r="R965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966">
@@ -54566,7 +54566,7 @@
         <v>1</v>
       </c>
       <c r="R966" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967">
@@ -55518,7 +55518,7 @@
         <v>1</v>
       </c>
       <c r="R983" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984">
@@ -56526,7 +56526,7 @@
         <v>1</v>
       </c>
       <c r="R1001" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002">
@@ -57478,7 +57478,7 @@
         <v>1</v>
       </c>
       <c r="R1018" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019">
@@ -57814,7 +57814,7 @@
         <v>2</v>
       </c>
       <c r="R1024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025">
@@ -57982,7 +57982,7 @@
         <v>1</v>
       </c>
       <c r="R1027" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028">
@@ -58430,7 +58430,7 @@
         <v>2</v>
       </c>
       <c r="R1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036">
@@ -59774,7 +59774,7 @@
         <v>2</v>
       </c>
       <c r="R1059" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060">
@@ -60334,7 +60334,7 @@
         <v>2</v>
       </c>
       <c r="R1069" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070">
@@ -60446,7 +60446,7 @@
         <v>1</v>
       </c>
       <c r="R1071" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072">
@@ -60894,7 +60894,7 @@
         <v>1</v>
       </c>
       <c r="R1079" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080">
@@ -62182,7 +62182,7 @@
         <v>2</v>
       </c>
       <c r="R1102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103">
@@ -62686,7 +62686,7 @@
         <v>2</v>
       </c>
       <c r="R1111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112">
@@ -62854,7 +62854,7 @@
         <v>1</v>
       </c>
       <c r="R1114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115">
@@ -63806,7 +63806,7 @@
         <v>2</v>
       </c>
       <c r="R1131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1132">
@@ -64366,7 +64366,7 @@
         <v>2</v>
       </c>
       <c r="R1141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1142">
@@ -64531,7 +64531,9 @@
       <c r="Q1144" t="n">
         <v>0</v>
       </c>
-      <c r="R1144" t="inlineStr"/>
+      <c r="R1144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1145">
       <c r="A1145" s="2" t="n">
@@ -64583,7 +64585,9 @@
       <c r="Q1145" t="n">
         <v>0</v>
       </c>
-      <c r="R1145" t="inlineStr"/>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
@@ -64635,7 +64639,9 @@
       <c r="Q1146" t="n">
         <v>1</v>
       </c>
-      <c r="R1146" t="inlineStr"/>
+      <c r="R1146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
@@ -64687,7 +64693,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1148">
       <c r="A1148" s="2" t="n">
@@ -64739,7 +64747,9 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
@@ -64791,7 +64801,9 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
@@ -64843,7 +64855,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64895,7 +64909,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64947,7 +64963,9 @@
       <c r="Q1152" t="n">
         <v>0</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -64999,7 +65017,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65051,7 +65071,9 @@
       <c r="Q1154" t="n">
         <v>0</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65103,7 +65125,9 @@
       <c r="Q1155" t="n">
         <v>1</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65155,7 +65179,9 @@
       <c r="Q1156" t="n">
         <v>0</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
@@ -65207,7 +65233,9 @@
       <c r="Q1157" t="n">
         <v>0</v>
       </c>
-      <c r="R1157" t="inlineStr"/>
+      <c r="R1157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
@@ -65259,7 +65287,9 @@
       <c r="Q1158" t="n">
         <v>0</v>
       </c>
-      <c r="R1158" t="inlineStr"/>
+      <c r="R1158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
@@ -65311,7 +65341,9 @@
       <c r="Q1159" t="n">
         <v>0</v>
       </c>
-      <c r="R1159" t="inlineStr"/>
+      <c r="R1159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
@@ -65363,7 +65395,9 @@
       <c r="Q1160" t="n">
         <v>0</v>
       </c>
-      <c r="R1160" t="inlineStr"/>
+      <c r="R1160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
@@ -65415,7 +65449,9 @@
       <c r="Q1161" t="n">
         <v>0</v>
       </c>
-      <c r="R1161" t="inlineStr"/>
+      <c r="R1161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
@@ -65467,7 +65503,9 @@
       <c r="Q1162" t="n">
         <v>0</v>
       </c>
-      <c r="R1162" t="inlineStr"/>
+      <c r="R1162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" s="2" t="n">
@@ -65519,7 +65557,9 @@
       <c r="Q1163" t="n">
         <v>0</v>
       </c>
-      <c r="R1163" t="inlineStr"/>
+      <c r="R1163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1164">
       <c r="A1164" s="2" t="n">
@@ -65571,7 +65611,9 @@
       <c r="Q1164" t="n">
         <v>0</v>
       </c>
-      <c r="R1164" t="inlineStr"/>
+      <c r="R1164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
@@ -65623,7 +65665,9 @@
       <c r="Q1165" t="n">
         <v>0</v>
       </c>
-      <c r="R1165" t="inlineStr"/>
+      <c r="R1165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
@@ -65675,7 +65719,9 @@
       <c r="Q1166" t="n">
         <v>1</v>
       </c>
-      <c r="R1166" t="inlineStr"/>
+      <c r="R1166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
@@ -65727,7 +65773,9 @@
       <c r="Q1167" t="n">
         <v>0</v>
       </c>
-      <c r="R1167" t="inlineStr"/>
+      <c r="R1167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
@@ -65779,7 +65827,9 @@
       <c r="Q1168" t="n">
         <v>0</v>
       </c>
-      <c r="R1168" t="inlineStr"/>
+      <c r="R1168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
@@ -65831,7 +65881,9 @@
       <c r="Q1169" t="n">
         <v>0</v>
       </c>
-      <c r="R1169" t="inlineStr"/>
+      <c r="R1169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
@@ -65883,7 +65935,9 @@
       <c r="Q1170" t="n">
         <v>0</v>
       </c>
-      <c r="R1170" t="inlineStr"/>
+      <c r="R1170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
@@ -65935,7 +65989,9 @@
       <c r="Q1171" t="n">
         <v>0</v>
       </c>
-      <c r="R1171" t="inlineStr"/>
+      <c r="R1171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
@@ -65987,7 +66043,9 @@
       <c r="Q1172" t="n">
         <v>0</v>
       </c>
-      <c r="R1172" t="inlineStr"/>
+      <c r="R1172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
@@ -66039,7 +66097,9 @@
       <c r="Q1173" t="n">
         <v>0</v>
       </c>
-      <c r="R1173" t="inlineStr"/>
+      <c r="R1173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
@@ -66083,7 +66143,7 @@
         <v>5</v>
       </c>
       <c r="O1174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1174" t="n">
         <v>0</v>
@@ -66091,7 +66151,9 @@
       <c r="Q1174" t="n">
         <v>0</v>
       </c>
-      <c r="R1174" t="inlineStr"/>
+      <c r="R1174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
@@ -66143,7 +66205,9 @@
       <c r="Q1175" t="n">
         <v>0</v>
       </c>
-      <c r="R1175" t="inlineStr"/>
+      <c r="R1175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
@@ -66195,7 +66259,9 @@
       <c r="Q1176" t="n">
         <v>2</v>
       </c>
-      <c r="R1176" t="inlineStr"/>
+      <c r="R1176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
@@ -66247,7 +66313,9 @@
       <c r="Q1177" t="n">
         <v>0</v>
       </c>
-      <c r="R1177" t="inlineStr"/>
+      <c r="R1177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
@@ -66299,7 +66367,217 @@
       <c r="Q1178" t="n">
         <v>0</v>
       </c>
-      <c r="R1178" t="inlineStr"/>
+      <c r="R1178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>454.4500122070312</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>503.8500061035156</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>421.1499938964844</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>484.4500122070312</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>5795390</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>486</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>518.8499755859375</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>468.3999938964844</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>482.5499877929688</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>4780240</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>484.6499938964844</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>528.0999755859375</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>477.2000122070312</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>513.4000244140625</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>2450281</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>520.0999755859375</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>462.5</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>477.7999877929688</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>2115865</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
